--- a/tl/S00037.MES.BIN.xlsx
+++ b/tl/S00037.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164C880-8CAC-4D62-A07C-34029517FFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96AFAD-4629-474C-B59B-98813E638C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="5070" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00037.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -50,55 +50,55 @@
     <t>1</t>
   </si>
   <si>
-    <t>When I leave her house and look back at the building, I feel a chill.</t>
+    <t>As I leave her house and turn back to look at the building, I feel a sense of desolation.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>...Mana Mizuki...chan...</t>
+    <t>…Mana Mizuki…chan….</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>I remember the girl who looks like a child.</t>
+    <t>I recall the memory of that childish girl.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>At that moment, I think for sure that it is her who is smiling kindly at me at the station, but something feels different...</t>
+    <t>I remember how she had smiled kindly at me at the station that one time, but something felt different…</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Somebody else...</t>
+    <t>Like she was a different person…</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>I don't think that can be true, but still...</t>
+    <t>I don't think that's really the case, but still….</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>...I'm home</t>
+    <t>…I'm home….</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Oh, there is a message on the answering machine.</t>
+    <t>Oh, there's a message on the answering machine.</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Beep...</t>
+    <t>Beep….</t>
   </si>
   <si>
     <t>19</t>
@@ -107,70 +107,70 @@
     <t>2</t>
   </si>
   <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>This is the Home Tutor Center."</t>
+    <t>Answering Machine</t>
+  </si>
+  <si>
+    <t>This is the Home Tutor Center.</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Regarding Mizuki-san, we are very grateful that you are taking this on."</t>
+    <t>Regarding Mizuki-san's request, we appreciate your acceptance, and look forward to working with you.</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Eh...?</t>
+    <t>Eh…...?</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Did I make that contact?</t>
+    <t>Did I make such a call?</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>So until March of next year, thank you for your cooperation."</t>
+    <t>Well then, we look forward to working with you until March of next year.</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>...Ah, no way, Mana-chan is doing this without permission...?</t>
+    <t>…Ah, wait, could it be that Mana-chan did this on her own…?</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>...And this is a request from the parents, but if Mizuki-san is not too enthusiastic about studying, we'd like you to report it to us."</t>
+    <t>…Also, this is a request from her parents, but if Mizuki-san does not show enough enthusiasm in her studies, we'd like you to report it to us.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>...I see.</t>
+    <t>…I see.</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>A monitor, huh...</t>
+    <t>I am a watchdog, huh….</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>It seems her story isn't just coming from an overblown sense of self-importance.</t>
+    <t>It looks like her story wasn't just a case of excessive self-consciousness.</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>Well then, excuse me..."</t>
+    <t>Well then, thank you for your time…</t>
   </si>
   <si>
     <t>41</t>
@@ -179,19 +179,19 @@
     <t>43</t>
   </si>
   <si>
-    <t>I don't know what's going on, but it looks like Mana-chan isn't in a very good situation.</t>
+    <t>I don't know what's going on, but either way, Mana-chan doesn't seem to be in a very good situation.</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>Even if I refuse here, another "monitor" will probably appear anyway.</t>
+    <t>Even if I refuse now, another "watchdog" will just show up eventually.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>They said it was okay to just come, so I don't need to refuse...</t>
+    <t>I was told it's okay for me to come as I please, so maybe I don't need to refuse after all….</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
